--- a/data/trans_orig/P05A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84DF404-EDD7-40EB-8568-78C13E3C9670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A451D538-C388-49BC-AD6A-043C491AE8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B779C19C-11E5-4F4D-B74F-949DEA744A07}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A79AA45B-DE42-495A-9A55-1D4C8B37BB25}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="544">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -76,1401 +76,1404 @@
     <t>72,24%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>71,78%</t>
   </si>
   <si>
-    <t>68,73%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
     <t>2,41%</t>
   </si>
   <si>
@@ -1537,9 +1540,6 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
     <t>4,05%</t>
   </si>
   <si>
@@ -1612,9 +1612,6 @@
     <t>4,2%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
     <t>83,25%</t>
   </si>
   <si>
@@ -1666,9 +1663,6 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
     <t>5,43%</t>
   </si>
   <si>
@@ -1676,9 +1670,6 @@
   </si>
   <si>
     <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AAE15F-D929-41F5-9359-879B7C3974FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6767C472-7B06-43AB-983F-498063E6B9DA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2698,7 +2689,7 @@
         <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>314</v>
@@ -2707,13 +2698,13 @@
         <v>328361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2719,13 @@
         <v>22193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -2743,13 +2734,13 @@
         <v>25584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -2758,13 +2749,13 @@
         <v>47776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,7 +2811,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2832,13 +2823,13 @@
         <v>432661</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>375</v>
@@ -2847,13 +2838,13 @@
         <v>425232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>764</v>
@@ -2862,13 +2853,13 @@
         <v>857893</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2874,13 @@
         <v>158196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>139</v>
@@ -2898,13 +2889,13 @@
         <v>160589</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>277</v>
@@ -2913,13 +2904,13 @@
         <v>318785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2925,13 @@
         <v>22736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -2949,13 +2940,13 @@
         <v>24771</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -2964,13 +2955,13 @@
         <v>47507</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3017,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3038,13 +3029,13 @@
         <v>278146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>283</v>
@@ -3053,13 +3044,13 @@
         <v>313391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>534</v>
@@ -3068,13 +3059,13 @@
         <v>591537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3080,13 @@
         <v>124125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -3104,13 +3095,13 @@
         <v>116032</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3119,13 +3110,13 @@
         <v>240157</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3131,13 @@
         <v>26134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3155,13 +3146,13 @@
         <v>15363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -3170,13 +3161,13 @@
         <v>41497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,7 +3223,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3244,13 +3235,13 @@
         <v>405909</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>485</v>
@@ -3259,13 +3250,13 @@
         <v>520412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>850</v>
@@ -3274,13 +3265,13 @@
         <v>926320</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3322,7 @@
         <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,10 +3337,10 @@
         <v>22710</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>170</v>
@@ -3379,10 +3370,10 @@
         <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3441,13 @@
         <v>2426978</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>2326</v>
@@ -3465,13 +3456,13 @@
         <v>2509543</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>4595</v>
@@ -3480,13 +3471,13 @@
         <v>4936521</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3492,13 @@
         <v>845083</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>843</v>
@@ -3516,10 +3507,10 @@
         <v>909841</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>189</v>
@@ -3570,10 +3561,10 @@
         <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>237</v>
@@ -3582,13 +3573,13 @@
         <v>252520</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3635,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3666,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3322818C-D678-46C0-AEF6-D817D3B7341D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC327474-9A7A-4587-A0A1-D7EDBCB07BCF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3683,7 +3674,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3790,10 +3781,10 @@
         <v>329418</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>205</v>
@@ -4101,10 +4092,10 @@
         <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4113,13 +4104,13 @@
         <v>18203</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -4128,13 +4119,13 @@
         <v>42237</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4193,13 @@
         <v>527607</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>508</v>
@@ -4217,13 +4208,13 @@
         <v>506971</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>1007</v>
@@ -4232,13 +4223,13 @@
         <v>1034579</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4244,13 @@
         <v>119207</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -4268,13 +4259,13 @@
         <v>130461</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>248</v>
@@ -4283,13 +4274,13 @@
         <v>249668</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4295,13 @@
         <v>20244</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4319,13 +4310,13 @@
         <v>19978</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4334,13 +4325,13 @@
         <v>40221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4408,13 +4399,13 @@
         <v>480912</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>471</v>
@@ -4423,13 +4414,13 @@
         <v>504514</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>905</v>
@@ -4438,13 +4429,13 @@
         <v>985426</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4450,13 @@
         <v>137439</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -4474,13 +4465,13 @@
         <v>118616</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>231</v>
@@ -4489,13 +4480,13 @@
         <v>256055</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4501,13 @@
         <v>23251</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -4528,10 +4519,10 @@
         <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4540,13 +4531,13 @@
         <v>43164</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,7 +4593,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4614,13 +4605,13 @@
         <v>358495</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>317</v>
@@ -4629,13 +4620,13 @@
         <v>361994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>637</v>
@@ -4644,13 +4635,13 @@
         <v>720490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4656,13 @@
         <v>101163</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H21" s="7">
         <v>94</v>
@@ -4680,13 +4671,13 @@
         <v>107629</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M21" s="7">
         <v>183</v>
@@ -4695,13 +4686,13 @@
         <v>208792</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4707,13 @@
         <v>18260</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4731,13 +4722,13 @@
         <v>22913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4746,13 +4737,13 @@
         <v>41173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4799,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4820,13 +4811,13 @@
         <v>448772</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>492</v>
@@ -4835,13 +4826,13 @@
         <v>580949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>966</v>
@@ -4850,13 +4841,13 @@
         <v>1029722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4862,13 @@
         <v>119092</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -4886,13 +4877,13 @@
         <v>165312</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>265</v>
@@ -4901,13 +4892,13 @@
         <v>284404</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4913,13 @@
         <v>16893</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4937,13 +4928,13 @@
         <v>25715</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -4952,13 +4943,13 @@
         <v>42608</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5017,13 @@
         <v>2576134</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>2529</v>
@@ -5041,13 +5032,13 @@
         <v>2676505</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M28" s="7">
         <v>4977</v>
@@ -5056,13 +5047,13 @@
         <v>5252639</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5068,13 @@
         <v>682913</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>671</v>
@@ -5092,13 +5083,13 @@
         <v>718447</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>369</v>
+        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>1325</v>
@@ -5107,13 +5098,13 @@
         <v>1401360</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5119,13 @@
         <v>117572</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H30" s="7">
         <v>110</v>
@@ -5143,13 +5134,13 @@
         <v>119370</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M30" s="7">
         <v>222</v>
@@ -5158,13 +5149,13 @@
         <v>236941</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,7 +5211,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5242,7 +5233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887C0331-E279-4C6F-908E-0FD24F6E49F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FD8986-FEB8-4D57-8451-CD4C547C66F4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5259,7 +5250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5366,13 +5357,13 @@
         <v>306782</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H4" s="7">
         <v>160</v>
@@ -5381,13 +5372,13 @@
         <v>267115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
@@ -5396,13 +5387,13 @@
         <v>573896</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5408,13 @@
         <v>43391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -5432,13 +5423,13 @@
         <v>60672</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -5447,13 +5438,13 @@
         <v>104063</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5459,13 @@
         <v>27507</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5483,13 +5474,13 @@
         <v>27171</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5498,13 +5489,13 @@
         <v>54677</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5563,13 @@
         <v>357196</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -5587,13 +5578,13 @@
         <v>412431</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M8" s="7">
         <v>631</v>
@@ -5602,13 +5593,13 @@
         <v>769627</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5614,13 @@
         <v>46458</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -5638,13 +5629,13 @@
         <v>62659</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M9" s="7">
         <v>89</v>
@@ -5653,13 +5644,13 @@
         <v>109117</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5665,13 @@
         <v>24742</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5689,13 +5680,13 @@
         <v>24126</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5704,13 +5695,13 @@
         <v>48867</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5769,13 @@
         <v>459863</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H12" s="7">
         <v>712</v>
@@ -5793,13 +5784,13 @@
         <v>515371</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M12" s="7">
         <v>1164</v>
@@ -5808,13 +5799,13 @@
         <v>975234</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5820,13 @@
         <v>57509</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -5844,13 +5835,13 @@
         <v>64000</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -5859,13 +5850,13 @@
         <v>121509</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5871,13 @@
         <v>33810</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -5895,7 +5886,7 @@
         <v>30138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>451</v>
@@ -5972,7 +5963,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6089,10 +6080,10 @@
         <v>474</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>225</v>
+        <v>475</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -6104,10 +6095,10 @@
         <v>63</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>476</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -6116,13 +6107,13 @@
         <v>47725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6169,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6190,13 +6181,13 @@
         <v>498542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>811</v>
@@ -6205,13 +6196,13 @@
         <v>472978</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>1369</v>
@@ -6220,13 +6211,13 @@
         <v>971519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6232,13 @@
         <v>82550</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
@@ -6256,13 +6247,13 @@
         <v>97789</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -6271,13 +6262,13 @@
         <v>180339</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6283,13 @@
         <v>19065</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>499</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -6322,13 +6313,13 @@
         <v>43175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,7 +6375,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6426,7 +6417,7 @@
         <v>1450973</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>509</v>
@@ -6504,7 +6495,7 @@
         <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -6528,13 +6519,13 @@
         <v>56406</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>524</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6593,13 @@
         <v>2809390</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H28" s="7">
         <v>4447</v>
@@ -6617,13 +6608,13 @@
         <v>3153533</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M28" s="7">
         <v>7271</v>
@@ -6632,13 +6623,13 @@
         <v>5962922</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6644,13 @@
         <v>413618</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>469</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H29" s="7">
         <v>691</v>
@@ -6668,13 +6659,13 @@
         <v>508189</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M29" s="7">
         <v>1094</v>
@@ -6683,13 +6674,13 @@
         <v>921807</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6704,13 +6695,13 @@
         <v>151596</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>542</v>
+        <v>300</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
@@ -6719,13 +6710,13 @@
         <v>163204</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M30" s="7">
         <v>347</v>
@@ -6734,13 +6725,13 @@
         <v>314800</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>546</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,7 +6787,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A451D538-C388-49BC-AD6A-043C491AE8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32CA3E6-DBED-45BD-87D8-0B89023B6759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A79AA45B-DE42-495A-9A55-1D4C8B37BB25}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C956FE08-831C-41B7-BD26-C79120A12A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="542">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>72,24%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>71,78%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>24,66%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,1540 +136,1534 @@
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>3,83%</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6767C472-7B06-43AB-983F-498063E6B9DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C01289B-0EB5-4574-B437-56546FD51A42}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2928,10 +2922,10 @@
         <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -2940,13 +2934,13 @@
         <v>24771</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -2955,13 +2949,13 @@
         <v>47507</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3011,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3029,13 +3023,13 @@
         <v>278146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>283</v>
@@ -3044,13 +3038,13 @@
         <v>313391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>534</v>
@@ -3059,13 +3053,13 @@
         <v>591537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3074,13 @@
         <v>124125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -3095,13 +3089,13 @@
         <v>116032</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3110,13 +3104,13 @@
         <v>240157</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3125,13 @@
         <v>26134</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3146,13 +3140,13 @@
         <v>15363</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -3271,7 +3265,7 @@
         <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3280,13 @@
         <v>124990</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>187</v>
@@ -3301,13 +3295,13 @@
         <v>199388</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>300</v>
@@ -3316,13 +3310,13 @@
         <v>324378</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3331,13 @@
         <v>22710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3352,13 +3346,13 @@
         <v>18104</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -3477,7 +3471,7 @@
         <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3486,13 @@
         <v>845083</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>843</v>
@@ -3507,13 +3501,13 @@
         <v>909841</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>1640</v>
@@ -3522,13 +3516,13 @@
         <v>1754925</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3537,13 @@
         <v>134146</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -3558,13 +3552,13 @@
         <v>118374</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>237</v>
@@ -3573,13 +3567,13 @@
         <v>252520</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3629,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3657,7 +3651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC327474-9A7A-4587-A0A1-D7EDBCB07BCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24820D47-7934-459B-91BE-BC6100C4BA82}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3674,7 +3668,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3781,13 +3775,13 @@
         <v>329418</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>306</v>
@@ -3796,13 +3790,13 @@
         <v>299171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -3811,13 +3805,13 @@
         <v>628589</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3826,13 @@
         <v>72731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -3847,13 +3841,13 @@
         <v>76747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>146</v>
@@ -3862,13 +3856,13 @@
         <v>149478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3877,13 @@
         <v>14890</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -3898,13 +3892,13 @@
         <v>12649</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -3916,10 +3910,10 @@
         <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3981,13 @@
         <v>430930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -4002,13 +3996,13 @@
         <v>422905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>847</v>
@@ -4017,13 +4011,13 @@
         <v>853835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4032,13 @@
         <v>133281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H9" s="7">
         <v>122</v>
@@ -4053,13 +4047,13 @@
         <v>119683</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M9" s="7">
         <v>252</v>
@@ -4068,13 +4062,13 @@
         <v>252963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4083,13 @@
         <v>24034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4104,13 +4098,13 @@
         <v>18203</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -4119,13 +4113,13 @@
         <v>42237</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,7 +4307,7 @@
         <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>277</v>
@@ -4331,7 +4325,7 @@
         <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,16 +4390,16 @@
         <v>434</v>
       </c>
       <c r="D16" s="7">
-        <v>480912</v>
+        <v>480911</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>471</v>
@@ -4414,13 +4408,13 @@
         <v>504514</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>905</v>
@@ -4429,13 +4423,13 @@
         <v>985426</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4444,13 @@
         <v>137439</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -4465,13 +4459,13 @@
         <v>118616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>231</v>
@@ -4480,13 +4474,13 @@
         <v>256055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,10 +4498,10 @@
         <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -4519,10 +4513,10 @@
         <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4531,10 +4525,10 @@
         <v>43164</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>300</v>
@@ -4549,7 +4543,7 @@
         <v>578</v>
       </c>
       <c r="D19" s="7">
-        <v>641602</v>
+        <v>641601</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4593,7 +4587,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4725,10 +4719,10 @@
         <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4737,13 +4731,13 @@
         <v>41173</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4805,13 @@
         <v>448772</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>492</v>
@@ -4826,13 +4820,13 @@
         <v>580949</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>966</v>
@@ -4841,13 +4835,13 @@
         <v>1029722</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4856,13 @@
         <v>119092</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -4877,13 +4871,13 @@
         <v>165312</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>265</v>
@@ -4892,13 +4886,13 @@
         <v>284404</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4907,13 @@
         <v>16893</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4928,13 +4922,13 @@
         <v>25715</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -4943,13 +4937,13 @@
         <v>42608</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5011,13 @@
         <v>2576134</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>2529</v>
@@ -5032,13 +5026,13 @@
         <v>2676505</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M28" s="7">
         <v>4977</v>
@@ -5047,13 +5041,13 @@
         <v>5252639</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5062,13 @@
         <v>682913</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>222</v>
       </c>
       <c r="H29" s="7">
         <v>671</v>
@@ -5083,13 +5077,13 @@
         <v>718447</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>138</v>
+        <v>363</v>
       </c>
       <c r="M29" s="7">
         <v>1325</v>
@@ -5098,13 +5092,13 @@
         <v>1401360</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5113,13 @@
         <v>117572</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="H30" s="7">
         <v>110</v>
@@ -5134,13 +5128,13 @@
         <v>119370</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="M30" s="7">
         <v>222</v>
@@ -5149,13 +5143,13 @@
         <v>236941</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5205,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5233,7 +5227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FD8986-FEB8-4D57-8451-CD4C547C66F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F2E151-BF92-4573-93F4-DBA14B16B2C2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5250,7 +5244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5357,13 +5351,13 @@
         <v>306782</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H4" s="7">
         <v>160</v>
@@ -5372,13 +5366,13 @@
         <v>267115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
@@ -5387,13 +5381,13 @@
         <v>573896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5402,13 @@
         <v>43391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -5423,13 +5417,13 @@
         <v>60672</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -5438,13 +5432,13 @@
         <v>104063</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5453,13 @@
         <v>27507</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5474,13 +5468,13 @@
         <v>27171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>399</v>
+        <v>324</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5489,13 +5483,13 @@
         <v>54677</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5557,13 @@
         <v>357196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -5578,13 +5572,13 @@
         <v>412431</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>631</v>
@@ -5593,13 +5587,13 @@
         <v>769627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>411</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5608,13 @@
         <v>46458</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -5629,13 +5623,13 @@
         <v>62659</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M9" s="7">
         <v>89</v>
@@ -5644,13 +5638,13 @@
         <v>109117</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5659,13 @@
         <v>24742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>422</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5680,13 +5674,13 @@
         <v>24126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5695,13 +5689,13 @@
         <v>48867</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5763,13 @@
         <v>459863</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H12" s="7">
         <v>712</v>
@@ -5784,13 +5778,13 @@
         <v>515371</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M12" s="7">
         <v>1164</v>
@@ -5799,13 +5793,13 @@
         <v>975234</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5814,13 @@
         <v>57509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -5835,13 +5829,13 @@
         <v>64000</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -5850,13 +5844,13 @@
         <v>121509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5865,13 @@
         <v>33810</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -5886,13 +5880,13 @@
         <v>30138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -5901,13 +5895,13 @@
         <v>63949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5969,13 @@
         <v>598753</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>955</v>
@@ -5990,13 +5984,13 @@
         <v>622921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>1504</v>
@@ -6005,13 +5999,13 @@
         <v>1221674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6020,13 @@
         <v>101865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -6041,13 +6035,13 @@
         <v>96441</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>237</v>
@@ -6056,13 +6050,13 @@
         <v>198307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6071,13 @@
         <v>22250</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -6095,10 +6089,10 @@
         <v>63</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>477</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -6107,13 +6101,13 @@
         <v>47725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,7 +6163,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6181,13 +6175,13 @@
         <v>498542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>811</v>
@@ -6196,13 +6190,13 @@
         <v>472978</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>1369</v>
@@ -6211,13 +6205,13 @@
         <v>971519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6226,13 @@
         <v>82550</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
@@ -6247,13 +6241,13 @@
         <v>97789</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -6262,13 +6256,13 @@
         <v>180339</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6277,13 @@
         <v>19065</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>195</v>
+        <v>491</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -6298,13 +6292,13 @@
         <v>24110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -6313,13 +6307,13 @@
         <v>43175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6381,13 @@
         <v>588255</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>1429</v>
@@ -6402,13 +6396,13 @@
         <v>862718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>2301</v>
@@ -6417,13 +6411,13 @@
         <v>1450973</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6432,13 @@
         <v>81845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H25" s="7">
         <v>217</v>
@@ -6453,13 +6447,13 @@
         <v>126628</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M25" s="7">
         <v>334</v>
@@ -6468,13 +6462,13 @@
         <v>208473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>519</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6483,13 @@
         <v>24222</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -6507,10 +6501,10 @@
         <v>37</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>522</v>
+        <v>251</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>523</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>88</v>
@@ -6522,10 +6516,10 @@
         <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>61</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6587,13 @@
         <v>2809390</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H28" s="7">
         <v>4447</v>
@@ -6608,28 +6602,28 @@
         <v>3153533</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M28" s="7">
         <v>7271</v>
       </c>
       <c r="N28" s="7">
-        <v>5962922</v>
+        <v>5962923</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6638,13 @@
         <v>413618</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H29" s="7">
         <v>691</v>
@@ -6659,13 +6653,13 @@
         <v>508189</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M29" s="7">
         <v>1094</v>
@@ -6674,13 +6668,13 @@
         <v>921807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6689,13 @@
         <v>151596</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>300</v>
+        <v>536</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>116</v>
+        <v>537</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
@@ -6710,13 +6704,13 @@
         <v>163204</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>479</v>
+        <v>351</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>396</v>
+        <v>495</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M30" s="7">
         <v>347</v>
@@ -6725,13 +6719,13 @@
         <v>314800</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>399</v>
+        <v>540</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>254</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,7 +6767,7 @@
         <v>8712</v>
       </c>
       <c r="N31" s="7">
-        <v>7199529</v>
+        <v>7199530</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -6787,7 +6781,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32CA3E6-DBED-45BD-87D8-0B89023B6759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{605CFEC1-5EAA-467E-8F42-FCE6BA35885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C956FE08-831C-41B7-BD26-C79120A12A2D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{24CD9BAD-5D22-4379-922B-383552719370}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="611">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nada</t>
@@ -163,7 +163,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>71,95%</t>
@@ -247,7 +247,7 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>72,87%</t>
@@ -331,7 +331,7 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>70,51%</t>
@@ -415,7 +415,7 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>64,93%</t>
@@ -493,1177 +493,1384 @@
     <t>6,51%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
 </sst>
 </file>
@@ -2075,8 +2282,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C01289B-0EB5-4574-B437-56546FD51A42}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD980A-99D8-4160-8E34-3420E52D3CFB}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2880,7 +3087,7 @@
         <v>139</v>
       </c>
       <c r="I17" s="7">
-        <v>160589</v>
+        <v>160588</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2982,7 +3189,7 @@
         <v>534</v>
       </c>
       <c r="I19" s="7">
-        <v>610592</v>
+        <v>610591</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3223,10 +3430,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>365</v>
+        <v>203</v>
       </c>
       <c r="D24" s="7">
-        <v>405909</v>
+        <v>221634</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>152</v>
@@ -3238,10 +3445,10 @@
         <v>154</v>
       </c>
       <c r="H24" s="7">
-        <v>485</v>
+        <v>233</v>
       </c>
       <c r="I24" s="7">
-        <v>520412</v>
+        <v>240885</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>155</v>
@@ -3253,10 +3460,10 @@
         <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>850</v>
+        <v>436</v>
       </c>
       <c r="N24" s="7">
-        <v>926320</v>
+        <v>462519</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>158</v>
@@ -3274,10 +3481,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7">
-        <v>124990</v>
+        <v>67729</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>161</v>
@@ -3289,10 +3496,10 @@
         <v>163</v>
       </c>
       <c r="H25" s="7">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="I25" s="7">
-        <v>199388</v>
+        <v>100418</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>164</v>
@@ -3304,10 +3511,10 @@
         <v>166</v>
       </c>
       <c r="M25" s="7">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="N25" s="7">
-        <v>324378</v>
+        <v>168147</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>167</v>
@@ -3325,49 +3532,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>22710</v>
+        <v>16378</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>18104</v>
+        <v>10666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="M26" s="7">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N26" s="7">
-        <v>40814</v>
+        <v>27044</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,10 +3583,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>499</v>
+        <v>279</v>
       </c>
       <c r="D27" s="7">
-        <v>553609</v>
+        <v>305741</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3391,10 +3598,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>690</v>
+        <v>342</v>
       </c>
       <c r="I27" s="7">
-        <v>737904</v>
+        <v>351969</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3406,10 +3613,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1189</v>
+        <v>621</v>
       </c>
       <c r="N27" s="7">
-        <v>1291512</v>
+        <v>657710</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3423,55 +3630,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2269</v>
+        <v>162</v>
       </c>
       <c r="D28" s="7">
-        <v>2426978</v>
+        <v>184275</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>2326</v>
+        <v>252</v>
       </c>
       <c r="I28" s="7">
-        <v>2509543</v>
+        <v>279526</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
-        <v>4595</v>
+        <v>414</v>
       </c>
       <c r="N28" s="7">
-        <v>4936521</v>
+        <v>463802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,49 +3687,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>797</v>
+        <v>52</v>
       </c>
       <c r="D29" s="7">
-        <v>845083</v>
+        <v>57261</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
-        <v>843</v>
+        <v>89</v>
       </c>
       <c r="I29" s="7">
-        <v>909841</v>
+        <v>98970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>1640</v>
+        <v>141</v>
       </c>
       <c r="N29" s="7">
-        <v>1754925</v>
+        <v>156232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3738,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>134146</v>
+        <v>6332</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>196</v>
@@ -3546,10 +3753,10 @@
         <v>197</v>
       </c>
       <c r="H30" s="7">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="I30" s="7">
-        <v>118374</v>
+        <v>7438</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>198</v>
@@ -3561,19 +3768,19 @@
         <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>252520</v>
+        <v>13770</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,63 +3789,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>247868</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>348</v>
+      </c>
+      <c r="I31" s="7">
+        <v>385934</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>568</v>
+      </c>
+      <c r="N31" s="7">
+        <v>633803</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2269</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2426978</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2326</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2509543</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4595</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4936521</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>797</v>
+      </c>
+      <c r="D33" s="7">
+        <v>845083</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="7">
+        <v>843</v>
+      </c>
+      <c r="I33" s="7">
+        <v>909841</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1640</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1754925</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>126</v>
+      </c>
+      <c r="D34" s="7">
+        <v>134146</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="7">
+        <v>111</v>
+      </c>
+      <c r="I34" s="7">
+        <v>118374</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="7">
+        <v>237</v>
+      </c>
+      <c r="N34" s="7">
+        <v>252520</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3192</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3406208</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3280</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3537758</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6472</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6943966</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3651,8 +4065,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24820D47-7934-459B-91BE-BC6100C4BA82}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED727B7-D1B1-4013-A163-AFE75DC62D47}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3668,7 +4082,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3775,13 +4189,13 @@
         <v>329418</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>306</v>
@@ -3790,13 +4204,13 @@
         <v>299171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -3805,13 +4219,13 @@
         <v>628589</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +4240,13 @@
         <v>72731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -3841,13 +4255,13 @@
         <v>76747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>146</v>
@@ -3856,13 +4270,13 @@
         <v>149478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +4291,13 @@
         <v>14890</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -3892,13 +4306,13 @@
         <v>12649</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -3910,10 +4324,10 @@
         <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +4395,13 @@
         <v>430930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -3996,13 +4410,13 @@
         <v>422905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>847</v>
@@ -4011,13 +4425,13 @@
         <v>853835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4446,13 @@
         <v>133281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>122</v>
@@ -4047,13 +4461,13 @@
         <v>119683</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>252</v>
@@ -4062,13 +4476,13 @@
         <v>252963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4497,13 @@
         <v>24034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4098,13 +4512,13 @@
         <v>18203</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -4113,13 +4527,13 @@
         <v>42237</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4601,13 @@
         <v>527607</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>508</v>
@@ -4202,13 +4616,13 @@
         <v>506971</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>1007</v>
@@ -4217,13 +4631,13 @@
         <v>1034579</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4652,13 @@
         <v>119207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -4253,13 +4667,13 @@
         <v>130461</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>248</v>
@@ -4268,13 +4682,13 @@
         <v>249668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4703,13 @@
         <v>20244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4304,13 +4718,13 @@
         <v>19978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4319,13 +4733,13 @@
         <v>40221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,28 +4807,28 @@
         <v>480911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>471</v>
       </c>
       <c r="I16" s="7">
-        <v>504514</v>
+        <v>504515</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>905</v>
@@ -4423,13 +4837,13 @@
         <v>985426</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4858,13 @@
         <v>137439</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -4459,10 +4873,10 @@
         <v>118616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>108</v>
@@ -4474,13 +4888,13 @@
         <v>256055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,10 +4912,10 @@
         <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -4513,10 +4927,10 @@
         <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4525,13 +4939,13 @@
         <v>43164</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4972,7 @@
         <v>597</v>
       </c>
       <c r="I19" s="7">
-        <v>643042</v>
+        <v>643043</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4599,13 +5013,13 @@
         <v>358495</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>317</v>
@@ -4614,13 +5028,13 @@
         <v>361994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>637</v>
@@ -4629,13 +5043,13 @@
         <v>720490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +5064,13 @@
         <v>101163</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="H21" s="7">
         <v>94</v>
@@ -4665,13 +5079,13 @@
         <v>107629</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="M21" s="7">
         <v>183</v>
@@ -4680,13 +5094,13 @@
         <v>208792</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +5115,13 @@
         <v>18260</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4716,13 +5130,13 @@
         <v>22913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4731,13 +5145,13 @@
         <v>41173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,49 +5213,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>474</v>
+        <v>245</v>
       </c>
       <c r="D24" s="7">
-        <v>448772</v>
+        <v>253327</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="7">
+        <v>261</v>
+      </c>
+      <c r="I24" s="7">
+        <v>276329</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M24" s="7">
+        <v>506</v>
+      </c>
+      <c r="N24" s="7">
+        <v>529657</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H24" s="7">
-        <v>492</v>
-      </c>
-      <c r="I24" s="7">
-        <v>580949</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M24" s="7">
-        <v>966</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1029722</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,49 +5264,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7">
-        <v>119092</v>
+        <v>66488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="I25" s="7">
-        <v>165312</v>
+        <v>87296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="M25" s="7">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="N25" s="7">
-        <v>284404</v>
+        <v>153784</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,49 +5315,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>16893</v>
+        <v>10646</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>62</v>
       </c>
       <c r="H26" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>25715</v>
+        <v>12075</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>34</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="M26" s="7">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N26" s="7">
-        <v>42608</v>
+        <v>22720</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>620</v>
+        <v>321</v>
       </c>
       <c r="D27" s="7">
-        <v>584757</v>
+        <v>330461</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -4967,10 +5381,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>650</v>
+        <v>352</v>
       </c>
       <c r="I27" s="7">
-        <v>771976</v>
+        <v>375700</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -4982,10 +5396,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1270</v>
+        <v>673</v>
       </c>
       <c r="N27" s="7">
-        <v>1356734</v>
+        <v>706161</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -4999,55 +5413,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2448</v>
+        <v>229</v>
       </c>
       <c r="D28" s="7">
-        <v>2576134</v>
+        <v>195444</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="H28" s="7">
-        <v>2529</v>
+        <v>231</v>
       </c>
       <c r="I28" s="7">
-        <v>2676505</v>
+        <v>304621</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="M28" s="7">
-        <v>4977</v>
+        <v>460</v>
       </c>
       <c r="N28" s="7">
-        <v>5252639</v>
+        <v>500065</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,49 +5470,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>654</v>
+        <v>63</v>
       </c>
       <c r="D29" s="7">
-        <v>682913</v>
+        <v>52604</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>222</v>
+        <v>385</v>
       </c>
       <c r="H29" s="7">
-        <v>671</v>
+        <v>57</v>
       </c>
       <c r="I29" s="7">
-        <v>718447</v>
+        <v>78016</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="M29" s="7">
-        <v>1325</v>
+        <v>120</v>
       </c>
       <c r="N29" s="7">
-        <v>1401360</v>
+        <v>130621</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>86</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +5521,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>117572</v>
+        <v>6247</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="H30" s="7">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="I30" s="7">
-        <v>119370</v>
+        <v>13640</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>248</v>
+        <v>396</v>
       </c>
       <c r="M30" s="7">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="N30" s="7">
-        <v>236941</v>
+        <v>19888</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,63 +5572,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>299</v>
+      </c>
+      <c r="D31" s="7">
+        <v>254296</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>298</v>
+      </c>
+      <c r="I31" s="7">
+        <v>396277</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>597</v>
+      </c>
+      <c r="N31" s="7">
+        <v>650573</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2448</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2576134</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2529</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2676505</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4977</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5252640</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>654</v>
+      </c>
+      <c r="D33" s="7">
+        <v>682913</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H33" s="7">
+        <v>671</v>
+      </c>
+      <c r="I33" s="7">
+        <v>718447</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1325</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1401360</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>112</v>
+      </c>
+      <c r="D34" s="7">
+        <v>117572</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="7">
+        <v>110</v>
+      </c>
+      <c r="I34" s="7">
+        <v>119370</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" s="7">
+        <v>222</v>
+      </c>
+      <c r="N34" s="7">
+        <v>236941</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3376619</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3310</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3514322</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6524</v>
       </c>
-      <c r="N31" s="7">
-        <v>6890940</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="N35" s="7">
+        <v>6890941</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5227,8 +5848,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F2E151-BF92-4573-93F4-DBA14B16B2C2}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD730E04-7FD2-4479-9669-1582D253036D}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5244,7 +5865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5348,46 +5969,46 @@
         <v>142</v>
       </c>
       <c r="D4" s="7">
-        <v>306782</v>
+        <v>328560</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>160</v>
       </c>
       <c r="I4" s="7">
-        <v>267115</v>
+        <v>232765</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
       </c>
       <c r="N4" s="7">
-        <v>573896</v>
+        <v>561325</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,46 +6020,46 @@
         <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>43391</v>
+        <v>43110</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>60672</v>
+        <v>56780</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>104063</v>
+        <v>99890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,46 +6071,46 @@
         <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>27507</v>
+        <v>28317</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>27171</v>
+        <v>23654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>324</v>
+        <v>443</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
       </c>
       <c r="N6" s="7">
-        <v>54677</v>
+        <v>51972</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +6122,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5516,7 +6137,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5531,7 +6152,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5554,46 +6175,46 @@
         <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>357196</v>
+        <v>353605</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
       </c>
       <c r="I8" s="7">
-        <v>412431</v>
+        <v>434696</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>449</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="M8" s="7">
         <v>631</v>
       </c>
       <c r="N8" s="7">
-        <v>769627</v>
+        <v>788301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>452</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,46 +6226,46 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>46458</v>
+        <v>45932</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>62659</v>
+        <v>56537</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="M9" s="7">
         <v>89</v>
       </c>
       <c r="N9" s="7">
-        <v>109117</v>
+        <v>102469</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,46 +6277,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>24742</v>
+        <v>24010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>24126</v>
+        <v>20860</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>417</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>48867</v>
+        <v>44870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>420</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,7 +6328,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5722,7 +6343,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5737,7 +6358,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5760,46 +6381,46 @@
         <v>452</v>
       </c>
       <c r="D12" s="7">
-        <v>459863</v>
+        <v>443965</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="H12" s="7">
         <v>712</v>
       </c>
       <c r="I12" s="7">
-        <v>515371</v>
+        <v>505089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="M12" s="7">
         <v>1164</v>
       </c>
       <c r="N12" s="7">
-        <v>975234</v>
+        <v>949053</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,46 +6432,46 @@
         <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>57509</v>
+        <v>54249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>64000</v>
+        <v>58626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
       </c>
       <c r="N13" s="7">
-        <v>121509</v>
+        <v>112875</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,46 +6483,46 @@
         <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>33810</v>
+        <v>32039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>30138</v>
+        <v>27397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>63949</v>
+        <v>59436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +6534,7 @@
         <v>539</v>
       </c>
       <c r="D15" s="7">
-        <v>551183</v>
+        <v>530253</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5928,7 +6549,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>609509</v>
+        <v>591111</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5943,7 +6564,7 @@
         <v>1385</v>
       </c>
       <c r="N15" s="7">
-        <v>1160692</v>
+        <v>1121364</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5966,46 +6587,46 @@
         <v>549</v>
       </c>
       <c r="D16" s="7">
-        <v>598753</v>
+        <v>765677</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="H16" s="7">
         <v>955</v>
       </c>
       <c r="I16" s="7">
-        <v>622921</v>
+        <v>599302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="M16" s="7">
         <v>1504</v>
       </c>
       <c r="N16" s="7">
-        <v>1221674</v>
+        <v>1364978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,46 +6638,46 @@
         <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>101865</v>
+        <v>99958</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
       </c>
       <c r="I17" s="7">
-        <v>96441</v>
+        <v>88085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>237</v>
       </c>
       <c r="N17" s="7">
-        <v>198307</v>
+        <v>188043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,46 +6689,46 @@
         <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>22250</v>
+        <v>21077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
       </c>
       <c r="I18" s="7">
-        <v>25475</v>
+        <v>23208</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>63</v>
+        <v>516</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>517</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>518</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>47725</v>
+        <v>44285</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>196</v>
+        <v>519</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>470</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6740,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>722868</v>
+        <v>886711</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6134,7 +6755,7 @@
         <v>1136</v>
       </c>
       <c r="I19" s="7">
-        <v>744837</v>
+        <v>710595</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6149,7 +6770,7 @@
         <v>1800</v>
       </c>
       <c r="N19" s="7">
-        <v>1467706</v>
+        <v>1597306</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6172,46 +6793,46 @@
         <v>558</v>
       </c>
       <c r="D20" s="7">
-        <v>498542</v>
+        <v>466814</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
         <v>811</v>
       </c>
       <c r="I20" s="7">
-        <v>472978</v>
+        <v>435393</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>1369</v>
       </c>
       <c r="N20" s="7">
-        <v>971519</v>
+        <v>902207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,46 +6844,46 @@
         <v>83</v>
       </c>
       <c r="D21" s="7">
-        <v>82550</v>
+        <v>76895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
       </c>
       <c r="I21" s="7">
-        <v>97789</v>
+        <v>88904</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
       </c>
       <c r="N21" s="7">
-        <v>180339</v>
+        <v>165800</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,46 +6895,46 @@
         <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>19065</v>
+        <v>17524</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>24110</v>
+        <v>21630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
       </c>
       <c r="N22" s="7">
-        <v>43175</v>
+        <v>39154</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6946,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6340,7 +6961,7 @@
         <v>999</v>
       </c>
       <c r="I23" s="7">
-        <v>594877</v>
+        <v>545927</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6355,7 +6976,7 @@
         <v>1662</v>
       </c>
       <c r="N23" s="7">
-        <v>1195033</v>
+        <v>1107161</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6375,49 +6996,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>872</v>
+        <v>481</v>
       </c>
       <c r="D24" s="7">
-        <v>588255</v>
+        <v>310348</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
       <c r="H24" s="7">
-        <v>1429</v>
+        <v>692</v>
       </c>
       <c r="I24" s="7">
-        <v>862718</v>
+        <v>538158</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
-        <v>2301</v>
+        <v>1173</v>
       </c>
       <c r="N24" s="7">
-        <v>1450973</v>
+        <v>848506</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>425</v>
+        <v>551</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,49 +7047,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7">
-        <v>81845</v>
+        <v>39961</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="H25" s="7">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="I25" s="7">
-        <v>126628</v>
+        <v>54442</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>510</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="N25" s="7">
-        <v>208473</v>
+        <v>94403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,49 +7098,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>24222</v>
+        <v>15043</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>514</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I26" s="7">
-        <v>32184</v>
+        <v>14038</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>251</v>
+        <v>563</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>221</v>
       </c>
       <c r="M26" s="7">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="N26" s="7">
-        <v>56406</v>
+        <v>29081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>88</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>119</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,10 +7149,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1023</v>
+        <v>566</v>
       </c>
       <c r="D27" s="7">
-        <v>694322</v>
+        <v>365352</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6543,10 +7164,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1700</v>
+        <v>824</v>
       </c>
       <c r="I27" s="7">
-        <v>1021530</v>
+        <v>606638</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6558,10 +7179,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2723</v>
+        <v>1390</v>
       </c>
       <c r="N27" s="7">
-        <v>1715852</v>
+        <v>971990</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6575,55 +7196,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2824</v>
+        <v>391</v>
       </c>
       <c r="D28" s="7">
-        <v>2809390</v>
+        <v>239188</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>519</v>
+        <v>240</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="H28" s="7">
-        <v>4447</v>
+        <v>737</v>
       </c>
       <c r="I28" s="7">
-        <v>3153533</v>
+        <v>350286</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="M28" s="7">
-        <v>7271</v>
+        <v>1128</v>
       </c>
       <c r="N28" s="7">
-        <v>5962923</v>
+        <v>589475</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>526</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,49 +7253,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>403</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7">
-        <v>413618</v>
+        <v>36167</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>527</v>
+        <v>574</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="H29" s="7">
-        <v>691</v>
+        <v>111</v>
       </c>
       <c r="I29" s="7">
-        <v>508189</v>
+        <v>58273</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>530</v>
+        <v>577</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>532</v>
+        <v>579</v>
       </c>
       <c r="M29" s="7">
-        <v>1094</v>
+        <v>166</v>
       </c>
       <c r="N29" s="7">
-        <v>921807</v>
+        <v>94440</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>535</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,49 +7304,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>151596</v>
+        <v>7003</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="H30" s="7">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="I30" s="7">
-        <v>163204</v>
+        <v>14521</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>351</v>
+        <v>585</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>539</v>
+        <v>467</v>
       </c>
       <c r="M30" s="7">
-        <v>347</v>
+        <v>39</v>
       </c>
       <c r="N30" s="7">
-        <v>314800</v>
+        <v>21525</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>541</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,63 +7355,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282359</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>876</v>
+      </c>
+      <c r="I31" s="7">
+        <v>423080</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N31" s="7">
+        <v>705439</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2824</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2908157</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4447</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3095688</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7271</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6003845</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>403</v>
+      </c>
+      <c r="D33" s="7">
+        <v>396272</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H33" s="7">
+        <v>691</v>
+      </c>
+      <c r="I33" s="7">
+        <v>461647</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1094</v>
+      </c>
+      <c r="N33" s="7">
+        <v>857919</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>136</v>
+      </c>
+      <c r="D34" s="7">
+        <v>145015</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="H34" s="7">
+        <v>211</v>
+      </c>
+      <c r="I34" s="7">
+        <v>145308</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M34" s="7">
+        <v>347</v>
+      </c>
+      <c r="N34" s="7">
+        <v>290323</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3363</v>
       </c>
-      <c r="D31" s="7">
-        <v>3374605</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3449443</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5349</v>
       </c>
-      <c r="I31" s="7">
-        <v>3824925</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3702643</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8712</v>
       </c>
-      <c r="N31" s="7">
-        <v>7199530</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
+      <c r="N35" s="7">
+        <v>7152086</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
